--- a/spreadsheet/labortime2021template.xlsx
+++ b/spreadsheet/labortime2021template.xlsx
@@ -83,10 +83,10 @@
     <t xml:space="preserve">年間予定登録・修正</t>
   </si>
   <si>
-    <t xml:space="preserve">年休予定登録</t>
+    <t xml:space="preserve">有休予定登録</t>
   </si>
   <si>
-    <t xml:space="preserve">「★年休予定」列</t>
+    <t xml:space="preserve">「★有休予定」列</t>
   </si>
   <si>
     <t xml:space="preserve">残業予定登録</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">累計のみ管理の場合は月末日の合計のみ</t>
   </si>
   <si>
-    <t xml:space="preserve">年休実績登録</t>
+    <t xml:space="preserve">有休実績登録</t>
   </si>
   <si>
-    <t xml:space="preserve">「★★年休実績」列</t>
+    <t xml:space="preserve">「★★有休実績」列</t>
   </si>
   <si>
     <t xml:space="preserve">1を入力</t>
@@ -170,7 +170,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">年休</t>
+    <t xml:space="preserve">有休</t>
   </si>
   <si>
     <t xml:space="preserve">日数</t>
@@ -416,7 +416,7 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">累積労働時間
-  年休反映後</t>
+  有休反映後</t>
     </r>
     <r>
       <rPr>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">時間登録</t>
   </si>
   <si>
-    <t xml:space="preserve">年休分析</t>
+    <t xml:space="preserve">有休分析</t>
   </si>
   <si>
     <t xml:space="preserve">★祝日・会社の休日登録</t>
@@ -526,7 +526,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">年休予定</t>
+      <t xml:space="preserve">有休予定</t>
     </r>
   </si>
   <si>
@@ -586,7 +586,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">年休</t>
+      <t xml:space="preserve">有休</t>
     </r>
   </si>
   <si>
@@ -823,257 +823,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">累積
-年休
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">予</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
+    <t xml:space="preserve">累積
+有休
+[予]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">年休
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">実</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">予</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
+    <t xml:space="preserve">有休
+[実+予]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">累積年休
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">実</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">予定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
+    <t xml:space="preserve">累積有休
+[実+予定]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">年休差
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">対</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">実</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">予</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">])</t>
-    </r>
+    <t xml:space="preserve">有休差
+(対[実+予])</t>
   </si>
   <si>
     <t xml:space="preserve">名前</t>
@@ -1696,7 +1460,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.49"/>
@@ -1916,7 +1680,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
